--- a/Models Results Summary.xlsx
+++ b/Models Results Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E62203-5D85-4EF4-9870-DB2B92F9F0C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620A865-3673-4118-83DE-93BAC785EE5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6936DA4E-5680-437D-A5B0-7152D99632F5}">
   <dimension ref="E3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Models Results Summary.xlsx
+++ b/Models Results Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9620A865-3673-4118-83DE-93BAC785EE5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347E17CF-535C-4C2D-801C-89FB9C0E5063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
   </bookViews>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6936DA4E-5680-437D-A5B0-7152D99632F5}">
   <dimension ref="E3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1606,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19A377-6104-4178-BE8B-7D37F10B95C5}">
   <dimension ref="E3:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/Models Results Summary.xlsx
+++ b/Models Results Summary.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347E17CF-535C-4C2D-801C-89FB9C0E5063}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49E7AD-7196-4E27-BE87-52981DF6BB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" activeTab="2" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation_Results" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Models_Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="New Table" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="56">
   <si>
     <t>June 2018</t>
   </si>
@@ -158,6 +159,42 @@
   </si>
   <si>
     <t xml:space="preserve">Weekend-Weekday </t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
@@ -168,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +242,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -290,6 +333,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6936DA4E-5680-437D-A5B0-7152D99632F5}">
   <dimension ref="E3:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:K50"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1607,7 +1658,7 @@
   <dimension ref="E3:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2214,4 +2265,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEEA535-C0FB-4470-B43F-F7721BD72B72}">
+  <dimension ref="H3:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="8" max="8" width="5.578125" customWidth="1"/>
+    <col min="9" max="9" width="10.26171875" customWidth="1"/>
+    <col min="10" max="10" width="11.68359375" customWidth="1"/>
+    <col min="11" max="11" width="10.734375" customWidth="1"/>
+    <col min="12" max="13" width="10.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="8:13" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="8:13" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="18">
+        <v>-29734</v>
+      </c>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="18">
+        <v>-35286</v>
+      </c>
+    </row>
+    <row r="7" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="16">
+        <v>3</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="18">
+        <v>-44172</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="16">
+        <v>4</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="18">
+        <v>-54227</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="16">
+        <v>5</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="18">
+        <v>-69865</v>
+      </c>
+    </row>
+    <row r="10" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="16">
+        <v>6</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="18">
+        <v>-61049</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="16">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="18">
+        <v>-37426</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="16">
+        <v>8</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="18">
+        <v>-37652</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models Results Summary.xlsx
+++ b/Models Results Summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A49E7AD-7196-4E27-BE87-52981DF6BB7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225360A1-3B28-41D1-8244-055483897408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" activeTab="2" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation_Results" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Models_Comparison" sheetId="2" r:id="rId2"/>
-    <sheet name="New Table" sheetId="3" r:id="rId3"/>
+    <sheet name="Slope_Sat-Sun_Week_Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="62">
   <si>
     <t>June 2018</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">Weekend-Weekday </t>
   </si>
   <si>
-    <t>Months</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
@@ -195,6 +192,27 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>0 and 1 steady low flow days</t>
+  </si>
+  <si>
+    <t>1 and 4 steady low flow days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 and 8 steady low flow days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 steady low flow days</t>
+  </si>
+  <si>
+    <t>Slope 0.8 MAF release volume and H1000 (Thousands of dollars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results for all release volumes considered and H1000 </t>
   </si>
 </sst>
 </file>
@@ -205,7 +223,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +267,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -287,11 +326,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,6 +427,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,11 +441,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,15 +791,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="5:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" s="1"/>
@@ -793,15 +912,15 @@
       </c>
     </row>
     <row r="9" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="1"/>
@@ -914,15 +1033,15 @@
       </c>
     </row>
     <row r="15" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="1"/>
@@ -1036,15 +1155,15 @@
       </c>
     </row>
     <row r="21" spans="5:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="5:13" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="1"/>
@@ -1157,15 +1276,15 @@
       </c>
     </row>
     <row r="27" spans="5:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="5:13" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="1"/>
@@ -1275,15 +1394,15 @@
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="1"/>
@@ -1396,15 +1515,15 @@
       </c>
     </row>
     <row r="39" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="1"/>
@@ -1517,15 +1636,15 @@
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="1"/>
@@ -1672,25 +1791,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:11" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="5:11" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1754,14 +1873,14 @@
       </c>
     </row>
     <row r="8" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -1825,14 +1944,14 @@
       </c>
     </row>
     <row r="12" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -1896,14 +2015,14 @@
       </c>
     </row>
     <row r="16" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -1967,14 +2086,14 @@
       </c>
     </row>
     <row r="20" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2038,14 +2157,14 @@
       </c>
     </row>
     <row r="24" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2109,14 +2228,14 @@
       </c>
     </row>
     <row r="28" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2180,14 +2299,14 @@
       </c>
     </row>
     <row r="32" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="5:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2269,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEEA535-C0FB-4470-B43F-F7721BD72B72}">
-  <dimension ref="H3:M12"/>
+  <dimension ref="H2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2284,200 +2403,403 @@
     <col min="12" max="13" width="10.26171875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H2" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
     <row r="3" spans="8:13" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="8:13" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="8:13" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="15">
+        <v>-29734</v>
+      </c>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="15">
+        <v>-35286</v>
+      </c>
+    </row>
+    <row r="7" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="15">
+        <v>-44172</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="13">
+        <v>4</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="15">
+        <v>-54227</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="13">
+        <v>5</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="15">
+        <v>-69865</v>
+      </c>
+    </row>
+    <row r="10" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="13">
+        <v>6</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="15">
+        <v>-61049</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="13">
+        <v>7</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="15">
+        <v>-37426</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="13">
+        <v>8</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="15">
+        <v>-37652</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="H16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="8:13" ht="47.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="21">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22">
+        <v>16</v>
+      </c>
+      <c r="L18" s="22">
+        <v>10</v>
+      </c>
+      <c r="M18" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H19" s="24">
+        <v>2</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="19">
+        <v>29</v>
+      </c>
+      <c r="K19" s="20">
+        <v>25</v>
+      </c>
+      <c r="L19" s="20">
+        <v>8</v>
+      </c>
+      <c r="M19" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H20" s="24">
+        <v>3</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="19">
+        <v>28</v>
+      </c>
+      <c r="K20" s="20">
+        <v>25</v>
+      </c>
+      <c r="L20" s="20">
+        <v>8</v>
+      </c>
+      <c r="M20" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H21" s="24">
+        <v>4</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="19">
+        <v>44</v>
+      </c>
+      <c r="K21" s="20">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L21" s="20">
+        <v>11</v>
+      </c>
+      <c r="M21" s="20">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H22" s="24">
+        <v>5</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="19">
+        <v>44</v>
+      </c>
+      <c r="K22" s="20">
+        <v>38</v>
+      </c>
+      <c r="L22" s="20">
+        <v>19</v>
+      </c>
+      <c r="M22" s="20">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H23" s="24">
+        <v>6</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="19">
         <v>39</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="18">
-        <v>-29734</v>
-      </c>
-    </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="18">
-        <v>-35286</v>
-      </c>
-    </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H7" s="16">
-        <v>3</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="18">
-        <v>-44172</v>
-      </c>
-    </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H8" s="16">
-        <v>4</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="18">
-        <v>-54227</v>
-      </c>
-    </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H9" s="16">
-        <v>5</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="18">
-        <v>-69865</v>
-      </c>
-    </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H10" s="16">
-        <v>6</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="K23" s="20">
+        <v>34</v>
+      </c>
+      <c r="L23" s="20">
+        <v>11</v>
+      </c>
+      <c r="M23" s="20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H24" s="24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="18">
-        <v>-61049</v>
-      </c>
-    </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H11" s="16">
+      <c r="J24" s="19">
+        <v>30</v>
+      </c>
+      <c r="K24" s="20">
+        <v>26</v>
+      </c>
+      <c r="L24" s="20">
+        <v>8</v>
+      </c>
+      <c r="M24" s="20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H25" s="24">
+        <v>8</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="19">
+        <v>24</v>
+      </c>
+      <c r="K25" s="20">
+        <v>20</v>
+      </c>
+      <c r="L25" s="20">
         <v>7</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="18">
-        <v>-37426</v>
-      </c>
-    </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H12" s="16">
-        <v>8</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="18">
-        <v>-37652</v>
+      <c r="M25" s="20">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models Results Summary.xlsx
+++ b/Models Results Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225360A1-3B28-41D1-8244-055483897408}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98179F57-00F1-4BFB-9861-2FB32DA5476E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" activeTab="2" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13332" windowHeight="5400" xr2:uid="{FE9F60E1-1D1A-497C-A6D1-090697B2B267}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation_Results" sheetId="1" r:id="rId1"/>
@@ -432,15 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,13 +444,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6936DA4E-5680-437D-A5B0-7152D99632F5}">
   <dimension ref="E3:M50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
@@ -791,15 +791,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="5:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" s="1"/>
@@ -912,15 +912,15 @@
       </c>
     </row>
     <row r="9" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="1"/>
@@ -1033,15 +1033,15 @@
       </c>
     </row>
     <row r="15" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="1"/>
@@ -1155,15 +1155,15 @@
       </c>
     </row>
     <row r="21" spans="5:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="5:13" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="1"/>
@@ -1276,15 +1276,15 @@
       </c>
     </row>
     <row r="27" spans="5:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="5:13" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="1"/>
@@ -1394,15 +1394,15 @@
       </c>
     </row>
     <row r="33" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" s="1"/>
@@ -1515,15 +1515,15 @@
       </c>
     </row>
     <row r="39" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="1"/>
@@ -1636,15 +1636,15 @@
       </c>
     </row>
     <row r="45" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" s="1"/>
@@ -1791,25 +1791,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:11" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="5:11" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1873,14 +1873,14 @@
       </c>
     </row>
     <row r="8" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -1944,14 +1944,14 @@
       </c>
     </row>
     <row r="12" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2015,14 +2015,14 @@
       </c>
     </row>
     <row r="16" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2086,14 +2086,14 @@
       </c>
     </row>
     <row r="20" spans="5:11" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2157,14 +2157,14 @@
       </c>
     </row>
     <row r="24" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2228,14 +2228,14 @@
       </c>
     </row>
     <row r="28" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="5:11" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2299,14 +2299,14 @@
       </c>
     </row>
     <row r="32" spans="5:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="5:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
@@ -2390,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEEA535-C0FB-4470-B43F-F7721BD72B72}">
   <dimension ref="H2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -2404,24 +2404,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="8:13" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="8:13" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" s="1" t="s">
@@ -2604,14 +2604,14 @@
       </c>
     </row>
     <row r="16" spans="8:13" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="8:13" ht="47.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="H17" s="1" t="s">
@@ -2634,162 +2634,162 @@
       </c>
     </row>
     <row r="18" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H18" s="24">
+      <c r="H18" s="20">
         <v>1</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="18">
         <v>19</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="19">
         <v>16</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="19">
         <v>10</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="19">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <v>2</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="16">
         <v>29</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="17">
         <v>25</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="17">
         <v>8</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H20" s="24">
+      <c r="H20" s="20">
         <v>3</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="16">
         <v>28</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="17">
         <v>25</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="17">
         <v>8</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="17">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H21" s="24">
+      <c r="H21" s="20">
         <v>4</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="16">
         <v>44</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="17">
         <v>38</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="17">
         <v>11</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H22" s="24">
+      <c r="H22" s="20">
         <v>5</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <v>44</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="17">
         <v>38</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="17">
         <v>19</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="17">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H23" s="24">
+      <c r="H23" s="20">
         <v>6</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="16">
         <v>39</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="17">
         <v>34</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="17">
         <v>11</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="17">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H24" s="24">
+      <c r="H24" s="20">
         <v>7</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="16">
         <v>30</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="17">
         <v>26</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="17">
         <v>8</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="8:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="H25" s="24">
+      <c r="H25" s="20">
         <v>8</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="16">
         <v>24</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="17">
         <v>20</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="17">
         <v>7</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="17">
         <v>38</v>
       </c>
     </row>
